--- a/src/modelinput/gen_tech_2050.xlsx
+++ b/src/modelinput/gen_tech_2050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/prianto_chalmers_se/Documents/Documents/99. RegModel/modelinput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="507" documentId="8_{CFF00F47-7BB3-4B95-81F1-C9D66D6C6408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B166D4A1-7098-4767-920F-9F1CFABC280A}"/>
+  <xr:revisionPtr revIDLastSave="511" documentId="8_{CFF00F47-7BB3-4B95-81F1-C9D66D6C6408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E733D347-5899-4A09-8F44-2F0D5D62A617}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDD20ED2-A9DA-4A80-92E5-898A75D04877}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CDD20ED2-A9DA-4A80-92E5-898A75D04877}"/>
   </bookViews>
   <sheets>
     <sheet name="gen_tech_" sheetId="1" r:id="rId1"/>
@@ -628,7 +628,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,6 +806,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -969,8 +981,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1395,7 +1409,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,25 +1467,25 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>110</v>
       </c>
       <c r="V1" t="s">
@@ -1527,31 +1541,31 @@
         <f>56.9/1000000</f>
         <v>5.6900000000000001E-5</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
         <v>1000</v>
       </c>
       <c r="V2" t="s">
         <v>42</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="X2" t="s">
@@ -1601,25 +1615,25 @@
         <f>20.2/1000000</f>
         <v>2.02E-5</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
         <v>1000</v>
       </c>
       <c r="V3" t="s">
@@ -1675,25 +1689,25 @@
         <f>42.9/1000000</f>
         <v>4.2899999999999999E-5</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
         <v>1000</v>
       </c>
       <c r="V4" t="s">
@@ -1749,25 +1763,25 @@
         <f>20.2/1000000</f>
         <v>2.02E-5</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
         <v>1000</v>
       </c>
       <c r="V5" t="s">
@@ -1823,31 +1837,31 @@
         <f>56.9/1000000</f>
         <v>5.6900000000000001E-5</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
         <v>1000</v>
       </c>
       <c r="V6" t="s">
         <v>46</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="X6" t="s">
@@ -1897,31 +1911,31 @@
         <f>56.9/1000000</f>
         <v>5.6900000000000001E-5</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
         <v>1000</v>
       </c>
       <c r="V7" t="s">
         <v>47</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1968,25 +1982,25 @@
         <f>56.9/1000000</f>
         <v>5.6900000000000001E-5</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
         <v>1000</v>
       </c>
       <c r="V8" t="s">
@@ -2042,25 +2056,25 @@
         <f>56.9/1000000</f>
         <v>5.6900000000000001E-5</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
         <v>1000</v>
       </c>
       <c r="V9" t="s">
@@ -2116,25 +2130,25 @@
         <f>56.9/1000000</f>
         <v>5.6900000000000001E-5</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
         <v>1000</v>
       </c>
       <c r="V10" t="s">
@@ -2188,10 +2202,15 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
         <v>1000</v>
       </c>
       <c r="V11" t="s">
@@ -2245,10 +2264,15 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
         <v>1000</v>
       </c>
       <c r="V12" t="s">
@@ -2303,10 +2327,15 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
         <v>1000</v>
       </c>
       <c r="V13" t="s">
@@ -2361,10 +2390,15 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
         <v>1000</v>
       </c>
       <c r="V14" t="s">
@@ -2418,10 +2452,15 @@
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
         <v>1000</v>
       </c>
       <c r="V15" t="s">
@@ -2475,10 +2514,15 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
         <v>1000</v>
       </c>
       <c r="V16" t="s">
@@ -2532,10 +2576,15 @@
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
         <v>1000</v>
       </c>
       <c r="V17" t="s">
@@ -2590,10 +2639,15 @@
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
         <v>1000</v>
       </c>
       <c r="V18" t="s">
@@ -2649,10 +2703,15 @@
         <f>10.63/1000000</f>
         <v>1.0630000000000002E-5</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
         <v>1000</v>
       </c>
       <c r="V19" t="s">
@@ -2707,10 +2766,15 @@
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
         <v>1000</v>
       </c>
       <c r="V20" t="s">
@@ -2765,10 +2829,15 @@
       <c r="N21">
         <v>0</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
         <v>1000</v>
       </c>
       <c r="V21" t="s">
@@ -2810,10 +2879,15 @@
       <c r="K22">
         <v>0.85</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
         <v>1000</v>
       </c>
       <c r="V22" t="s">
@@ -2858,10 +2932,15 @@
       <c r="K23">
         <v>0.85</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
         <v>1000</v>
       </c>
       <c r="V23" t="s">
@@ -2906,10 +2985,15 @@
       <c r="K24">
         <v>0.85</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
         <v>1000</v>
       </c>
       <c r="V24" t="s">
